--- a/AkioAILocal/System_Tend/log.xlsx
+++ b/AkioAILocal/System_Tend/log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="442">
   <si>
     <t>枠</t>
   </si>
@@ -52,763 +52,1297 @@
     <t>勝率</t>
   </si>
   <si>
-    <t>山口勲</t>
-  </si>
-  <si>
-    <t>鮫島克也</t>
-  </si>
-  <si>
-    <t>児島真二</t>
-  </si>
-  <si>
-    <t>山口以和</t>
-  </si>
-  <si>
-    <t>山下裕貴</t>
-  </si>
-  <si>
-    <t>竹吉徹</t>
-  </si>
-  <si>
-    <t>川島拓</t>
-  </si>
-  <si>
-    <t>田中直人</t>
-  </si>
-  <si>
-    <t>渡辺博文</t>
-  </si>
-  <si>
-    <t>田中純</t>
-  </si>
-  <si>
-    <t>小松丈二</t>
-  </si>
-  <si>
-    <t>村松翔太</t>
-  </si>
-  <si>
-    <t>南谷圭哉</t>
-  </si>
-  <si>
-    <t>石川慎将</t>
-  </si>
-  <si>
-    <t>吉田順治</t>
-  </si>
-  <si>
-    <t>倉富隆一</t>
-  </si>
-  <si>
-    <t>真島正徳</t>
-  </si>
-  <si>
-    <t>岡村健司</t>
-  </si>
-  <si>
-    <t>出水拓人</t>
-  </si>
-  <si>
-    <t>長田進仁</t>
-  </si>
-  <si>
-    <t>兒島真二</t>
-  </si>
-  <si>
-    <t>吉村智洋</t>
-  </si>
-  <si>
-    <t>吉本隆記</t>
-  </si>
-  <si>
-    <t>岩永千明</t>
+    <t>武豊</t>
+  </si>
+  <si>
+    <t>戸崎圭太</t>
+  </si>
+  <si>
+    <t>池添謙一</t>
+  </si>
+  <si>
+    <t>小牧太</t>
+  </si>
+  <si>
+    <t>内田博幸</t>
+  </si>
+  <si>
+    <t>真島大輔</t>
+  </si>
+  <si>
+    <t>藤田伸二</t>
+  </si>
+  <si>
+    <t>金子正彦</t>
+  </si>
+  <si>
+    <t>的場文男</t>
+  </si>
+  <si>
+    <t>和田竜二</t>
+  </si>
+  <si>
+    <t>御神本訓</t>
+  </si>
+  <si>
+    <t>五十嵐冬</t>
+  </si>
+  <si>
+    <t>吉田稔</t>
+  </si>
+  <si>
+    <t>今野忠成</t>
+  </si>
+  <si>
+    <t>吉田豊</t>
+  </si>
+  <si>
+    <t>本橋孝太</t>
+  </si>
+  <si>
+    <t>酒井学</t>
+  </si>
+  <si>
+    <t>木村健</t>
+  </si>
+  <si>
+    <t>宮川実</t>
+  </si>
+  <si>
+    <t>吉井友彦</t>
+  </si>
+  <si>
+    <t>永森大智</t>
+  </si>
+  <si>
+    <t>柏木健宏</t>
+  </si>
+  <si>
+    <t>酒井忍</t>
+  </si>
+  <si>
+    <t>繁田健一</t>
+  </si>
+  <si>
+    <t>Ａ．ムン</t>
+  </si>
+  <si>
+    <t>吉井竜一</t>
+  </si>
+  <si>
+    <t>有年淳</t>
+  </si>
+  <si>
+    <t>坂井英光</t>
+  </si>
+  <si>
+    <t>達城龍次</t>
+  </si>
+  <si>
+    <t>山田信大</t>
+  </si>
+  <si>
+    <t>岩田康誠</t>
+  </si>
+  <si>
+    <t>Ｍデムー</t>
+  </si>
+  <si>
+    <t>石崎駿</t>
+  </si>
+  <si>
+    <t>西森将司</t>
+  </si>
+  <si>
+    <t>本村直樹</t>
+  </si>
+  <si>
+    <t>大原浩司</t>
+  </si>
+  <si>
+    <t>太宰啓介</t>
+  </si>
+  <si>
+    <t>松岡正海</t>
+  </si>
+  <si>
+    <t>和田譲治</t>
+  </si>
+  <si>
+    <t>森泰斗</t>
+  </si>
+  <si>
+    <t>服部茂史</t>
+  </si>
+  <si>
+    <t>張田京</t>
+  </si>
+  <si>
+    <t>楢崎功祐</t>
+  </si>
+  <si>
+    <t>山崎誠士</t>
+  </si>
+  <si>
+    <t>左海誠二</t>
+  </si>
+  <si>
+    <t>笹川翼</t>
+  </si>
+  <si>
+    <t>幸英明</t>
+  </si>
+  <si>
+    <t>北村宏司</t>
+  </si>
+  <si>
+    <t>本田正重</t>
+  </si>
+  <si>
+    <t>花本正三</t>
+  </si>
+  <si>
+    <t>青柳正義</t>
+  </si>
+  <si>
+    <t>沢田龍哉</t>
+  </si>
+  <si>
+    <t>矢野貴之</t>
+  </si>
+  <si>
+    <t>早田功駿</t>
+  </si>
+  <si>
+    <t>田辺裕信</t>
+  </si>
+  <si>
+    <t>吉原寛人</t>
+  </si>
+  <si>
+    <t>桑村真明</t>
+  </si>
+  <si>
+    <t>古川吉洋</t>
+  </si>
+  <si>
+    <t>横川怜央</t>
+  </si>
+  <si>
+    <t>宮崎光行</t>
+  </si>
+  <si>
+    <t>Ｋ．デザ</t>
+  </si>
+  <si>
+    <t>瀬川将輝</t>
+  </si>
+  <si>
+    <t>大野拓弥</t>
+  </si>
+  <si>
+    <t>川田将雅</t>
+  </si>
+  <si>
+    <t>Ｍ．デム</t>
+  </si>
+  <si>
+    <t>津村明秀</t>
+  </si>
+  <si>
+    <t>今井貴大</t>
+  </si>
+  <si>
+    <t>石川倭</t>
+  </si>
+  <si>
+    <t>張田昂</t>
+  </si>
+  <si>
+    <t>秋山真一</t>
+  </si>
+  <si>
+    <t>内田利雄</t>
+  </si>
+  <si>
+    <t>高野誠毅</t>
+  </si>
+  <si>
+    <t>中野省吾</t>
+  </si>
+  <si>
+    <t>保園翔也</t>
+  </si>
+  <si>
+    <t>Ｃ．ルメ</t>
+  </si>
+  <si>
+    <t>秋元耕成</t>
+  </si>
+  <si>
+    <t>赤岡修次</t>
+  </si>
+  <si>
+    <t>加藤和博</t>
+  </si>
+  <si>
+    <t>福永祐一</t>
+  </si>
+  <si>
+    <t>松山弘平</t>
+  </si>
+  <si>
+    <t>安藤洋一</t>
+  </si>
+  <si>
+    <t>Ｒ．クア</t>
+  </si>
+  <si>
+    <t>瀧川寿希</t>
+  </si>
+  <si>
+    <t>田中力</t>
+  </si>
+  <si>
+    <t>桜井光輔</t>
+  </si>
+  <si>
+    <t>三浦皇成</t>
+  </si>
+  <si>
+    <t>高松亮</t>
+  </si>
+  <si>
+    <t>藤本現暉</t>
+  </si>
+  <si>
+    <t>橋本直哉</t>
+  </si>
+  <si>
+    <t>阿部龍</t>
+  </si>
+  <si>
+    <t>Ｏ．マー</t>
+  </si>
+  <si>
+    <t>井上幹太</t>
+  </si>
+  <si>
+    <t>中島龍也</t>
+  </si>
+  <si>
+    <t>千田洋</t>
+  </si>
+  <si>
+    <t>佐藤友則</t>
+  </si>
+  <si>
+    <t>西啓太</t>
+  </si>
+  <si>
+    <t>勝浦正樹</t>
+  </si>
+  <si>
+    <t>ゴールドアリュール</t>
+  </si>
+  <si>
+    <t>ミシシッピアン</t>
+  </si>
+  <si>
+    <t>ブライアンズタイム</t>
+  </si>
+  <si>
+    <t>Mr. Prospector</t>
+  </si>
+  <si>
+    <t>Seeking the Gold</t>
+  </si>
+  <si>
+    <t>アドマイヤボス</t>
+  </si>
+  <si>
+    <t>ジェネラス</t>
+  </si>
+  <si>
+    <t>ステイゴールド</t>
+  </si>
+  <si>
+    <t>ポリッシュネイビー</t>
+  </si>
+  <si>
+    <t>スキャターザゴールド</t>
+  </si>
+  <si>
+    <t>アサティス</t>
+  </si>
+  <si>
+    <t>スペシャルウィーク</t>
+  </si>
+  <si>
+    <t>レギュラーメンバー</t>
+  </si>
+  <si>
+    <t>マルゼンスキー</t>
+  </si>
+  <si>
+    <t>カリズマティック</t>
+  </si>
+  <si>
+    <t>Pleasant Tap</t>
   </si>
   <si>
     <t>クロフネ</t>
   </si>
   <si>
+    <t>Miswaki</t>
+  </si>
+  <si>
+    <t>コマンダーインチーフ</t>
+  </si>
+  <si>
+    <t>サンデーサイレンス</t>
+  </si>
+  <si>
+    <t>スマートボーイ</t>
+  </si>
+  <si>
+    <t>Riverman</t>
+  </si>
+  <si>
+    <t>アフリート</t>
+  </si>
+  <si>
+    <t>ワイルドラッシュ</t>
+  </si>
+  <si>
+    <t>トニービン</t>
+  </si>
+  <si>
+    <t>ウォーエンブレム</t>
+  </si>
+  <si>
+    <t>Sadler's Wells</t>
+  </si>
+  <si>
+    <t>タヤスツヨシ</t>
+  </si>
+  <si>
+    <t>グルームダンサー</t>
+  </si>
+  <si>
+    <t>クロコルージュ</t>
+  </si>
+  <si>
+    <t>リンドシェーバー</t>
+  </si>
+  <si>
+    <t>フジキセキ</t>
+  </si>
+  <si>
+    <t>ベリファ</t>
+  </si>
+  <si>
+    <t>サンライズペガサス</t>
+  </si>
+  <si>
+    <t>コロニアルアッフェアー</t>
+  </si>
+  <si>
+    <t>ブラックタイアフェアー</t>
+  </si>
+  <si>
+    <t>ハバット</t>
+  </si>
+  <si>
+    <t>スパイキュール</t>
+  </si>
+  <si>
+    <t>タマモクロス</t>
+  </si>
+  <si>
+    <t>ゴールドヘイロー</t>
+  </si>
+  <si>
+    <t>メジロライアン</t>
+  </si>
+  <si>
+    <t>マイネルセレクト</t>
+  </si>
+  <si>
+    <t>オリオンザサンクス</t>
+  </si>
+  <si>
+    <t>ロイヤルタッチ</t>
+  </si>
+  <si>
+    <t>トワイニング</t>
+  </si>
+  <si>
+    <t>Theatrical</t>
+  </si>
+  <si>
+    <t>カコイーシーズ</t>
+  </si>
+  <si>
+    <t>ダイタクヘリオス</t>
+  </si>
+  <si>
+    <t>サッカーボーイ</t>
+  </si>
+  <si>
+    <t>Bates Motel</t>
+  </si>
+  <si>
+    <t>ジョリーズヘイロー</t>
+  </si>
+  <si>
+    <t>ミスターシービー</t>
+  </si>
+  <si>
+    <t>シンボリルドルフ</t>
+  </si>
+  <si>
+    <t>マンハッタンカフェ</t>
+  </si>
+  <si>
+    <t>トウショウボーイ</t>
+  </si>
+  <si>
+    <t>Langfuhr</t>
+  </si>
+  <si>
+    <t>Kingmambo</t>
+  </si>
+  <si>
+    <t>コンサートボーイ</t>
+  </si>
+  <si>
+    <t>ハイセイコー</t>
+  </si>
+  <si>
+    <t>ムタファーウエク</t>
+  </si>
+  <si>
+    <t>Bellotto</t>
+  </si>
+  <si>
+    <t>Holy Bull</t>
+  </si>
+  <si>
+    <t>Dixieland Band</t>
+  </si>
+  <si>
+    <t>Tapit</t>
+  </si>
+  <si>
+    <t>Concern</t>
+  </si>
+  <si>
+    <t>Medaglia d'Oro</t>
+  </si>
+  <si>
+    <t>Defensive Play</t>
+  </si>
+  <si>
+    <t>アグネスデジタル</t>
+  </si>
+  <si>
+    <t>アンバーシャダイ</t>
+  </si>
+  <si>
+    <t>メイセイオペラ</t>
+  </si>
+  <si>
+    <t>ヘクタープロテクター</t>
+  </si>
+  <si>
+    <t>Exploit</t>
+  </si>
+  <si>
+    <t>Awesome Again</t>
+  </si>
+  <si>
+    <t>キングカメハメハ</t>
+  </si>
+  <si>
+    <t>サウスヴィグラス</t>
+  </si>
+  <si>
+    <t>フォーティナイナー</t>
+  </si>
+  <si>
+    <t>アイネスフウジン</t>
+  </si>
+  <si>
+    <t>Smart Strike</t>
+  </si>
+  <si>
+    <t>Broad Brush</t>
+  </si>
+  <si>
+    <t>キングヘイロー</t>
+  </si>
+  <si>
+    <t>オジジアン</t>
+  </si>
+  <si>
+    <t>シャンハイ</t>
+  </si>
+  <si>
+    <t>ネオユニヴァース</t>
+  </si>
+  <si>
+    <t>More Than Ready</t>
+  </si>
+  <si>
+    <t>ブラックタキシード</t>
+  </si>
+  <si>
+    <t>ワカオライデン</t>
+  </si>
+  <si>
+    <t>ティンバーカントリー</t>
+  </si>
+  <si>
+    <t>クワイエットデイ</t>
+  </si>
+  <si>
+    <t>イーグルカフェ</t>
+  </si>
+  <si>
+    <t>ヤマニンスキー</t>
+  </si>
+  <si>
+    <t>バブルガムフェロー</t>
+  </si>
+  <si>
+    <t>ロージズインメイ</t>
+  </si>
+  <si>
+    <t>フレンチデピュティ</t>
+  </si>
+  <si>
+    <t>メイショウサムソン</t>
+  </si>
+  <si>
+    <t>Carson City</t>
+  </si>
+  <si>
+    <t>Cherokee Run</t>
+  </si>
+  <si>
+    <t>ホワイトマズル</t>
+  </si>
+  <si>
+    <t>アドマイヤベガ</t>
+  </si>
+  <si>
+    <t>Bernardini</t>
+  </si>
+  <si>
+    <t>Nureyev</t>
+  </si>
+  <si>
+    <t>フィガロ</t>
+  </si>
+  <si>
+    <t>ダンスインザダーク</t>
+  </si>
+  <si>
+    <t>サンダーガルチ</t>
+  </si>
+  <si>
+    <t>ノーリュート</t>
+  </si>
+  <si>
+    <t>Machiavellian</t>
+  </si>
+  <si>
+    <t>アドマイヤドン</t>
+  </si>
+  <si>
+    <t>タイムパラドックス</t>
+  </si>
+  <si>
+    <t>スターリングローズ</t>
+  </si>
+  <si>
+    <t>ゴーナウ</t>
+  </si>
+  <si>
+    <t>カンパニー</t>
+  </si>
+  <si>
+    <t>マーベラスサンデー</t>
+  </si>
+  <si>
+    <t>サクラバクシンオー</t>
+  </si>
+  <si>
+    <t>ストーミングホーム</t>
+  </si>
+  <si>
+    <t>アジュディケーティング</t>
+  </si>
+  <si>
+    <t>ニューイングランド</t>
+  </si>
+  <si>
+    <t>パーシャンボーイ</t>
+  </si>
+  <si>
+    <t>Cox's Ridge</t>
+  </si>
+  <si>
+    <t>Devil's Bag</t>
+  </si>
+  <si>
+    <t>アッミラーレ</t>
+  </si>
+  <si>
+    <t>Dayjur</t>
+  </si>
+  <si>
+    <t>Gulch</t>
+  </si>
+  <si>
+    <t>エルコンドルパサー</t>
+  </si>
+  <si>
+    <t>キンググローリアス</t>
+  </si>
+  <si>
+    <t>エイシンサンディ</t>
+  </si>
+  <si>
+    <t>ピルサドスキー</t>
+  </si>
+  <si>
+    <t>リアルシャダイ</t>
+  </si>
+  <si>
+    <t>Tizbud</t>
+  </si>
+  <si>
+    <t>Siberian Summer</t>
+  </si>
+  <si>
+    <t>ルースリンド</t>
+  </si>
+  <si>
+    <t>ジェイドロバリー</t>
+  </si>
+  <si>
+    <t>アグネスタキオン</t>
+  </si>
+  <si>
+    <t>オンファイア</t>
+  </si>
+  <si>
+    <t>グラスワンダー</t>
+  </si>
+  <si>
+    <t>ハイアーゲーム</t>
+  </si>
+  <si>
+    <t>パイロ</t>
+  </si>
+  <si>
+    <t>タイキシャトル</t>
+  </si>
+  <si>
+    <t>ヴァーミリアン</t>
+  </si>
+  <si>
+    <t>ラムタラ</t>
+  </si>
+  <si>
+    <t>スズカマンボ</t>
+  </si>
+  <si>
+    <t>エリシオ</t>
+  </si>
+  <si>
+    <t>マヤノトップガン</t>
+  </si>
+  <si>
+    <t>タイトスポット</t>
+  </si>
+  <si>
+    <t>プリサイスエンド</t>
+  </si>
+  <si>
+    <t>ブレイヴェストローマン</t>
+  </si>
+  <si>
+    <t>タニノギムレット</t>
+  </si>
+  <si>
+    <t>ゼンノロブロイ</t>
+  </si>
+  <si>
+    <t>エンドスウィープ</t>
+  </si>
+  <si>
+    <t>ヘニーヒューズ</t>
+  </si>
+  <si>
+    <t>Marquetry</t>
+  </si>
+  <si>
+    <t>タップダンスシチー</t>
+  </si>
+  <si>
+    <t>ウイングアロー</t>
+  </si>
+  <si>
+    <t>カジノドライヴ</t>
+  </si>
+  <si>
+    <t>アドマイヤコジーン</t>
+  </si>
+  <si>
+    <t>サクラオリオン</t>
+  </si>
+  <si>
+    <t>サクラプレジデント</t>
+  </si>
+  <si>
     <t>ジャングルポケット</t>
   </si>
   <si>
-    <t>スターリングローズ</t>
-  </si>
-  <si>
-    <t>ロージズインメイ</t>
-  </si>
-  <si>
-    <t>Medicean</t>
+    <t>クーリンガー</t>
+  </si>
+  <si>
+    <t>アドマイヤオーラ</t>
+  </si>
+  <si>
+    <t>Cryptoclearance</t>
+  </si>
+  <si>
+    <t>Gone West</t>
+  </si>
+  <si>
+    <t>ウォーニング</t>
+  </si>
+  <si>
+    <t>ラグビーボール</t>
+  </si>
+  <si>
+    <t>ノーザンテースト</t>
+  </si>
+  <si>
+    <t>ダイワメジャー</t>
+  </si>
+  <si>
+    <t>オペラハウス</t>
+  </si>
+  <si>
+    <t>アドマイヤマックス</t>
+  </si>
+  <si>
+    <t>サクラローレル</t>
+  </si>
+  <si>
+    <t>カネヒキリ</t>
+  </si>
+  <si>
+    <t>Crafty Prospector</t>
+  </si>
+  <si>
+    <t>アンライバルド</t>
+  </si>
+  <si>
+    <t>シンボリクリスエス</t>
+  </si>
+  <si>
+    <t>ディープインパクト</t>
+  </si>
+  <si>
+    <t>Alydar</t>
+  </si>
+  <si>
+    <t>Successful Appeal</t>
+  </si>
+  <si>
+    <t>Yankee Victor</t>
+  </si>
+  <si>
+    <t>ハーツクライ</t>
+  </si>
+  <si>
+    <t>Hesabull</t>
+  </si>
+  <si>
+    <t>ディープスカイ</t>
+  </si>
+  <si>
+    <t>Rahy</t>
+  </si>
+  <si>
+    <t>デヒア</t>
+  </si>
+  <si>
+    <t>フォーティナイナーズサン</t>
+  </si>
+  <si>
+    <t>スピニングワールド</t>
+  </si>
+  <si>
+    <t>チアズブライトリー</t>
+  </si>
+  <si>
+    <t>ロドリゴデトリアーノ</t>
+  </si>
+  <si>
+    <t>フリオーソ</t>
+  </si>
+  <si>
+    <t>マツリダゴッホ</t>
+  </si>
+  <si>
+    <t>エルハーブ</t>
+  </si>
+  <si>
+    <t>El Prado</t>
+  </si>
+  <si>
+    <t>ノボジャック</t>
+  </si>
+  <si>
+    <t>Honour and Glory</t>
+  </si>
+  <si>
+    <t>シニスターミニスター</t>
+  </si>
+  <si>
+    <t>キングズベスト</t>
+  </si>
+  <si>
+    <t>Desert Prince</t>
   </si>
   <si>
     <t>バトルプラン</t>
   </si>
   <si>
-    <t>サンデーサイレンス</t>
-  </si>
-  <si>
-    <t>プリサイスエンド</t>
-  </si>
-  <si>
-    <t>キングカメハメハ</t>
-  </si>
-  <si>
-    <t>アイルハヴアナザー</t>
-  </si>
-  <si>
-    <t>アグネスデジタル</t>
-  </si>
-  <si>
-    <t>ヴァーミリアン</t>
-  </si>
-  <si>
-    <t>アスワン</t>
-  </si>
-  <si>
-    <t>カネヒキリ</t>
-  </si>
-  <si>
-    <t>タバスコキャット</t>
-  </si>
-  <si>
-    <t>キングズベスト</t>
-  </si>
-  <si>
-    <t>ステイゴールド</t>
-  </si>
-  <si>
-    <t>ボストンハーバー</t>
-  </si>
-  <si>
-    <t>ホワイトマズル</t>
-  </si>
-  <si>
-    <t>エリシオ</t>
-  </si>
-  <si>
-    <t>ゴールドアリュール</t>
-  </si>
-  <si>
-    <t>オペラハウス</t>
-  </si>
-  <si>
-    <t>ケイムホーム</t>
-  </si>
-  <si>
-    <t>フォーティナイナー</t>
-  </si>
-  <si>
-    <t>ムーンロケット</t>
-  </si>
-  <si>
-    <t>グラスワンダー</t>
-  </si>
-  <si>
-    <t>ブライアンズタイム</t>
-  </si>
-  <si>
-    <t>キャプテンスティーヴ</t>
-  </si>
-  <si>
-    <t>トウカイワイルド</t>
-  </si>
-  <si>
-    <t>カンパニー</t>
-  </si>
-  <si>
-    <t>アドマイヤジャパン</t>
-  </si>
-  <si>
-    <t>アラムシャー</t>
-  </si>
-  <si>
-    <t>Crafty Prospector</t>
+    <t>ブラックタイド</t>
+  </si>
+  <si>
+    <t>トーセンブライト</t>
+  </si>
+  <si>
+    <t>スマートファルコン</t>
+  </si>
+  <si>
+    <t>チーフベアハート</t>
+  </si>
+  <si>
+    <t>ディープブリランテ</t>
+  </si>
+  <si>
+    <t>トウカイテイオー</t>
+  </si>
+  <si>
+    <t>エスポワールシチー</t>
+  </si>
+  <si>
+    <t>スキャン</t>
+  </si>
+  <si>
+    <t>スウェプトオーヴァーボード</t>
+  </si>
+  <si>
+    <t>アドマイヤムーン</t>
+  </si>
+  <si>
+    <t>A.P. Indy</t>
+  </si>
+  <si>
+    <t>ストロングリターン</t>
   </si>
   <si>
     <t>ブラックホーク</t>
   </si>
   <si>
-    <t>リーチザクラウン</t>
-  </si>
-  <si>
-    <t>Key of Luck</t>
-  </si>
-  <si>
-    <t>ハービンジャー</t>
-  </si>
-  <si>
-    <t>テイエムオペラオー</t>
-  </si>
-  <si>
-    <t>ゼンノロブロイ</t>
-  </si>
-  <si>
-    <t>Intikhab</t>
-  </si>
-  <si>
-    <t>タイキシャトル</t>
-  </si>
-  <si>
-    <t>カジノドライヴ</t>
-  </si>
-  <si>
-    <t>アグネスタキオン</t>
-  </si>
-  <si>
-    <t>マツリダゴッホ</t>
-  </si>
-  <si>
-    <t>トーホウキング</t>
-  </si>
-  <si>
-    <t>ナカヤマフェスタ</t>
-  </si>
-  <si>
-    <t>メジロマックイーン</t>
+    <t>ヤマニンセラフィム</t>
+  </si>
+  <si>
+    <t>サクラチヨノオー</t>
+  </si>
+  <si>
+    <t>ダンカーク</t>
+  </si>
+  <si>
+    <t>シルポート</t>
+  </si>
+  <si>
+    <t>トゥザグローリー</t>
+  </si>
+  <si>
+    <t>ジェニュイン</t>
+  </si>
+  <si>
+    <t>エンパイアメーカー</t>
   </si>
   <si>
     <t>サマーバード</t>
   </si>
   <si>
-    <t>マンハッタンカフェ</t>
-  </si>
-  <si>
-    <t>フサイチリシャール</t>
-  </si>
-  <si>
-    <t>トウカイテイオー</t>
-  </si>
-  <si>
-    <t>タニノギムレット</t>
-  </si>
-  <si>
-    <t>エンドスウィープ</t>
-  </si>
-  <si>
-    <t>メイショウボーラー</t>
-  </si>
-  <si>
-    <t>フジキセキ</t>
-  </si>
-  <si>
-    <t>ウォーニング</t>
-  </si>
-  <si>
-    <t>アドマイヤオーラ</t>
-  </si>
-  <si>
-    <t>Phone Trick</t>
-  </si>
-  <si>
-    <t>ショウナンカンプ</t>
-  </si>
-  <si>
-    <t>ハンティングホーク</t>
-  </si>
-  <si>
-    <t>アドマイヤムーン</t>
-  </si>
-  <si>
-    <t>Green Forest</t>
-  </si>
-  <si>
-    <t>ルールオブロー</t>
-  </si>
-  <si>
-    <t>ダンスインザダーク</t>
-  </si>
-  <si>
-    <t>ブラックタキシード</t>
-  </si>
-  <si>
-    <t>ランニングフリー</t>
-  </si>
-  <si>
-    <t>フォーティナイナーズサン</t>
-  </si>
-  <si>
-    <t>ジャイアントレッカー</t>
-  </si>
-  <si>
-    <t>アジュディケーティング</t>
-  </si>
-  <si>
-    <t>パイロ</t>
-  </si>
-  <si>
-    <t>トーセンブライト</t>
-  </si>
-  <si>
-    <t>ネオユニヴァース</t>
-  </si>
-  <si>
-    <t>スペシャルウィーク</t>
-  </si>
-  <si>
-    <t>Kingmambo</t>
-  </si>
-  <si>
-    <t>サムライハート</t>
-  </si>
-  <si>
-    <t>ダンシングブレーヴ</t>
-  </si>
-  <si>
-    <t>ファルブラヴ</t>
-  </si>
-  <si>
-    <t>Siphon</t>
-  </si>
-  <si>
-    <t>デュランダル</t>
-  </si>
-  <si>
-    <t>Saint Ballado</t>
-  </si>
-  <si>
-    <t>オレハマッテルゼ</t>
-  </si>
-  <si>
-    <t>サクラバクシンオー</t>
-  </si>
-  <si>
-    <t>タイムパラドックス</t>
-  </si>
-  <si>
-    <t>バブルガムフェロー</t>
-  </si>
-  <si>
-    <t>Forest Wildcat</t>
-  </si>
-  <si>
-    <t>キンググローリアス</t>
-  </si>
-  <si>
-    <t>ゴーナウ</t>
-  </si>
-  <si>
-    <t>メジロライアン</t>
-  </si>
-  <si>
-    <t>ダイワメジャー</t>
-  </si>
-  <si>
-    <t>グルームダンサー</t>
-  </si>
-  <si>
-    <t>スターマン</t>
-  </si>
-  <si>
-    <t>リンドシェーバー</t>
-  </si>
-  <si>
-    <t>ビゼンニシキ</t>
-  </si>
-  <si>
-    <t>ヴィクトワールピサ</t>
-  </si>
-  <si>
-    <t>エルコンドルパサー</t>
-  </si>
-  <si>
-    <t>アッミラーレ</t>
-  </si>
-  <si>
-    <t>デインヒル</t>
-  </si>
-  <si>
-    <t>サウスヴィグラス</t>
-  </si>
-  <si>
-    <t>リッカロイヤル</t>
-  </si>
-  <si>
-    <t>ジョリーズヘイロー</t>
-  </si>
-  <si>
-    <t>タートルボウル</t>
-  </si>
-  <si>
-    <t>ワイルドラッシュ</t>
-  </si>
-  <si>
-    <t>ルーラーシップ</t>
-  </si>
-  <si>
-    <t>Giant's Causeway</t>
-  </si>
-  <si>
-    <t>Monsun</t>
-  </si>
-  <si>
-    <t>アドマイヤマックス</t>
-  </si>
-  <si>
-    <t>アフリート</t>
-  </si>
-  <si>
-    <t>マヤノトップガン</t>
-  </si>
-  <si>
-    <t>ストーミングホーム</t>
-  </si>
-  <si>
-    <t>メイショウサムソン</t>
-  </si>
-  <si>
-    <t>シンボリクリスエス</t>
-  </si>
-  <si>
-    <t>カフェオリンポス</t>
-  </si>
-  <si>
-    <t>スウェプトオーヴァーボード</t>
-  </si>
-  <si>
-    <t>コマンダーインチーフ</t>
-  </si>
-  <si>
-    <t>ストロングリターン</t>
-  </si>
-  <si>
-    <t>Awesome Again</t>
-  </si>
-  <si>
-    <t>コパノフウジン</t>
-  </si>
-  <si>
-    <t>バゴ</t>
-  </si>
-  <si>
-    <t>エンパイアメーカー</t>
-  </si>
-  <si>
-    <t>フレンチデピュティ</t>
-  </si>
-  <si>
-    <t>Sadler's Wells</t>
-  </si>
-  <si>
-    <t>マルゼンスキー</t>
-  </si>
-  <si>
-    <t>Ballingarry</t>
-  </si>
-  <si>
-    <t>キャプテントゥーレ</t>
-  </si>
-  <si>
-    <t>ビワタケヒデ</t>
-  </si>
-  <si>
-    <t>モンテロッソ</t>
-  </si>
-  <si>
-    <t>ウォーエンブレム</t>
-  </si>
-  <si>
-    <t>キングヘイロー</t>
-  </si>
-  <si>
-    <t>タップダンスシチー</t>
-  </si>
-  <si>
-    <t>ベーカバド</t>
-  </si>
-  <si>
-    <t>ロードカナロア</t>
-  </si>
-  <si>
-    <t>アンライバルド</t>
-  </si>
-  <si>
-    <t>エイシンフラッシュ</t>
-  </si>
-  <si>
-    <t>シビルウォー</t>
-  </si>
-  <si>
-    <t>ベルシャザール</t>
-  </si>
-  <si>
-    <t>Mark of Esteem</t>
-  </si>
-  <si>
-    <t>トーセンジョーダン</t>
-  </si>
-  <si>
-    <t>キンシャサノキセキ</t>
-  </si>
-  <si>
-    <t>ナイキアディライト</t>
-  </si>
-  <si>
-    <t>ソヴィエトスター</t>
-  </si>
-  <si>
-    <t>タヤスツヨシ</t>
-  </si>
-  <si>
-    <t>アーネストリー</t>
-  </si>
-  <si>
-    <t>オルフェーヴル</t>
-  </si>
-  <si>
-    <t>Posse</t>
-  </si>
-  <si>
-    <t>ディラントーマス</t>
-  </si>
-  <si>
-    <t>トゥザグローリー</t>
-  </si>
-  <si>
-    <t>サクラオリオン</t>
-  </si>
-  <si>
-    <t>トレボロ</t>
-  </si>
-  <si>
-    <t>ローエングリン</t>
-  </si>
-  <si>
-    <t>ブラックタイアフェアー</t>
-  </si>
-  <si>
-    <t>Nashwan</t>
-  </si>
-  <si>
-    <t>ディープスカイ</t>
-  </si>
-  <si>
-    <t>Mr. Prospector</t>
-  </si>
-  <si>
-    <t>シングンオペラ</t>
-  </si>
-  <si>
-    <t>トーセンホマレボシ</t>
-  </si>
-  <si>
-    <t>ダノンシャンティ</t>
-  </si>
-  <si>
-    <t>モンジュー</t>
-  </si>
-  <si>
-    <t>ハーツクライ</t>
-  </si>
-  <si>
-    <t>Songandaprayer</t>
-  </si>
-  <si>
-    <t>Theatrical</t>
-  </si>
-  <si>
-    <t>アドマイヤコジーン</t>
-  </si>
-  <si>
-    <t>エイシンサンディ</t>
-  </si>
-  <si>
-    <t>ディープブリランテ</t>
-  </si>
-  <si>
-    <t>Grand Slam</t>
-  </si>
-  <si>
-    <t>Lonhro</t>
-  </si>
-  <si>
-    <t>Bertrando</t>
-  </si>
-  <si>
-    <t>リファーズウィッシュ</t>
-  </si>
-  <si>
-    <t>ロードバリオス</t>
-  </si>
-  <si>
-    <t>ファスリエフ</t>
-  </si>
-  <si>
-    <t>シアトルダンサーII</t>
-  </si>
-  <si>
-    <t>スクリーンヒーロー</t>
-  </si>
-  <si>
-    <t>トニービン</t>
-  </si>
-  <si>
-    <t>ヤマニンセラフィム</t>
-  </si>
-  <si>
-    <t>スターダスト特選</t>
-  </si>
-  <si>
-    <t>初夏賞(G)</t>
-  </si>
-  <si>
-    <t>3歳ー4組</t>
-  </si>
-  <si>
-    <t>3歳ー3組</t>
-  </si>
-  <si>
-    <t>3歳ー8組</t>
-  </si>
-  <si>
-    <t>2歳ー5組</t>
-  </si>
-  <si>
-    <t>ドリームシリーズ</t>
-  </si>
-  <si>
-    <t>3歳ー9組</t>
-  </si>
-  <si>
-    <t>C2ー6組</t>
-  </si>
-  <si>
-    <t>里帰りジョッキーズカ</t>
-  </si>
-  <si>
-    <t>いて座特選</t>
-  </si>
-  <si>
-    <t>C2ー4組</t>
-  </si>
-  <si>
-    <t>C2ー7組</t>
-  </si>
-  <si>
-    <t>ヤングジョッキーズT</t>
-  </si>
-  <si>
-    <t>JRA交流大隅特別</t>
-  </si>
-  <si>
-    <t>夏至賞(G)</t>
-  </si>
-  <si>
-    <t>ブルースター特選</t>
-  </si>
-  <si>
-    <t>シューティングスター</t>
-  </si>
-  <si>
-    <t>オーガスト特選</t>
-  </si>
-  <si>
-    <t>長崎街道松原宿特選</t>
-  </si>
-  <si>
-    <t>立秋特選</t>
-  </si>
-  <si>
-    <t>長崎街道轟木宿特選</t>
-  </si>
-  <si>
-    <t>月見草賞</t>
-  </si>
-  <si>
-    <t>長崎街道内野宿特選</t>
-  </si>
-  <si>
-    <t>長崎街道飯塚宿特選</t>
-  </si>
-  <si>
-    <t>ジュライ特選</t>
-  </si>
-  <si>
-    <t>九千部山賞</t>
-  </si>
-  <si>
-    <t>セレブレイトC</t>
-  </si>
-  <si>
-    <t>こと座特選</t>
-  </si>
-  <si>
-    <t>C2ー3組</t>
-  </si>
-  <si>
-    <t>サンシャイン特選</t>
-  </si>
-  <si>
-    <t>C2ー16組</t>
-  </si>
-  <si>
-    <t>Bー2</t>
-  </si>
-  <si>
-    <t>ホットスター特選</t>
-  </si>
-  <si>
-    <t>虹の松原特選</t>
-  </si>
-  <si>
-    <t>有田焼特選</t>
-  </si>
-  <si>
-    <t>波戸岬特選</t>
-  </si>
-  <si>
-    <t>長崎街道田代宿特選</t>
+    <t>Run Away and Hide</t>
+  </si>
+  <si>
+    <t>Pulpit</t>
+  </si>
+  <si>
+    <t>プレシャスカフェ</t>
+  </si>
+  <si>
+    <t>コノミテイオー</t>
+  </si>
+  <si>
+    <t>浦和記念(G2)</t>
+  </si>
+  <si>
+    <t>JBCクラシック(G1)</t>
+  </si>
+  <si>
+    <t>ジャパンカップダート(G1)</t>
+  </si>
+  <si>
+    <t>勝島王冠競走(G)</t>
   </si>
   <si>
     <t>3歳以上500万下</t>
   </si>
   <si>
-    <t>C1ー4組</t>
-  </si>
-  <si>
-    <t>C1ー10組</t>
-  </si>
-  <si>
-    <t>ルビー特選</t>
-  </si>
-  <si>
-    <t>3歳ー10組</t>
-  </si>
-  <si>
-    <t>C2ー12組</t>
-  </si>
-  <si>
-    <t>チャレンジシリーズ</t>
-  </si>
-  <si>
-    <t>C2ー10組</t>
-  </si>
-  <si>
-    <t>C1ー6組</t>
-  </si>
-  <si>
-    <t>長崎街道山家宿特選</t>
-  </si>
-  <si>
-    <t>あっさぶふるさと夏ま</t>
-  </si>
-  <si>
-    <t>ホトトギス賞</t>
-  </si>
-  <si>
-    <t>C1ー5組</t>
-  </si>
-  <si>
-    <t>A2・B</t>
-  </si>
-  <si>
-    <t>よさこい盃</t>
-  </si>
-  <si>
-    <t>あさがお特別</t>
-  </si>
-  <si>
-    <t>BAOOサマーチャレ</t>
-  </si>
-  <si>
-    <t>季夏特別</t>
+    <t>ベテルギウスS(OP)</t>
+  </si>
+  <si>
+    <t>中日杯(G)</t>
+  </si>
+  <si>
+    <t>クイーン賞(G3)</t>
+  </si>
+  <si>
+    <t>オーバルスプリント(G)</t>
+  </si>
+  <si>
+    <t>日本テレビ盃(G2)</t>
+  </si>
+  <si>
+    <t>マイルCS南部杯(G1)</t>
+  </si>
+  <si>
+    <t>白山大賞典(G3)</t>
+  </si>
+  <si>
+    <t>奥物部もみじ祭り特別</t>
+  </si>
+  <si>
+    <t>東京記念競走(G)</t>
+  </si>
+  <si>
+    <t>帝王賞競走(G1)</t>
+  </si>
+  <si>
+    <t>埼玉栄冠賞(G)</t>
+  </si>
+  <si>
+    <t>姫山菊花賞(G)</t>
+  </si>
+  <si>
+    <t>珊瑚冠賞(G)</t>
+  </si>
+  <si>
+    <t>’11ムーンライトカ(OP)</t>
+  </si>
+  <si>
+    <t>レミニス賞競走</t>
+  </si>
+  <si>
+    <t>ドラマティックナイト</t>
+  </si>
+  <si>
+    <t>スポーツニッポン賞競</t>
+  </si>
+  <si>
+    <t>オクトーバースター賞</t>
+  </si>
+  <si>
+    <t>カシオペア賞競走</t>
+  </si>
+  <si>
+    <t>アンドロメダ賞競走</t>
+  </si>
+  <si>
+    <t>OROパーク賞競走</t>
+  </si>
+  <si>
+    <t>JBCクラシック競走(G1)</t>
+  </si>
+  <si>
+    <t>みやこS(G3)</t>
+  </si>
+  <si>
+    <t>アペックス西日本特別</t>
+  </si>
+  <si>
+    <t>総の国(OP)</t>
+  </si>
+  <si>
+    <t>かしわ記念(G1)</t>
+  </si>
+  <si>
+    <t>’12ロイヤルC(OP)</t>
+  </si>
+  <si>
+    <t>道営記念〔H1〕(G)</t>
+  </si>
+  <si>
+    <t>戸塚記念(G)</t>
+  </si>
+  <si>
+    <t>とかげ座特別競走</t>
+  </si>
+  <si>
+    <t>デイリースポーツ賞競</t>
+  </si>
+  <si>
+    <t>くまたか特別競走</t>
+  </si>
+  <si>
+    <t>C1七　八</t>
+  </si>
+  <si>
+    <t>関東オークス[指定交(G2)</t>
+  </si>
+  <si>
+    <t>ももねこ様記念競走</t>
+  </si>
+  <si>
+    <t>矢車草特別競走</t>
+  </si>
+  <si>
+    <t>錦秋特別競走</t>
+  </si>
+  <si>
+    <t>3歳　310万</t>
+  </si>
+  <si>
+    <t>ブラジルC(OP)</t>
+  </si>
+  <si>
+    <t>あぜのきらめき特別A</t>
+  </si>
+  <si>
+    <t>オープス磐梯賞競走</t>
+  </si>
+  <si>
+    <t>ベガ賞競走</t>
+  </si>
+  <si>
+    <t>東京ダービー競走(G)</t>
+  </si>
+  <si>
+    <t>C1二</t>
+  </si>
+  <si>
+    <t>月光賞</t>
+  </si>
+  <si>
+    <t>仲秋特別競走</t>
+  </si>
+  <si>
+    <t>白露特別競走</t>
+  </si>
+  <si>
+    <t>C1三　四</t>
+  </si>
+  <si>
+    <t>チャンピオンズC(G1)</t>
+  </si>
+  <si>
+    <t>アルゼンチン共和国杯(G2)</t>
+  </si>
+  <si>
+    <t>東京中日S杯武蔵野S(G3)</t>
+  </si>
+  <si>
+    <t>ビッグベアーS</t>
+  </si>
+  <si>
+    <t>秋の鞍(G)</t>
+  </si>
+  <si>
+    <t>大山ミシュランガイド</t>
+  </si>
+  <si>
+    <t>滑川町谷津田米生産者</t>
+  </si>
+  <si>
+    <t>マイルチャンピオンシ(G1)</t>
+  </si>
+  <si>
+    <t>シリウスS(G3)</t>
+  </si>
+  <si>
+    <t>オパール特別</t>
+  </si>
+  <si>
+    <t>タフってこうぜ!タフ</t>
+  </si>
+  <si>
+    <t>ニュートラック松山賞</t>
+  </si>
+  <si>
+    <t>C1七　八九</t>
+  </si>
+  <si>
+    <t>メトロポリタンウィー</t>
+  </si>
+  <si>
+    <t>C2九　十11</t>
+  </si>
+  <si>
+    <t>名古屋グランプリ(G2)</t>
+  </si>
+  <si>
+    <t>アーバンステージ霜月</t>
+  </si>
+  <si>
+    <t>東京スポーツ師走杯</t>
+  </si>
+  <si>
+    <t>ゴールドC(G)</t>
+  </si>
+  <si>
+    <t>園田金盃(G)</t>
+  </si>
+  <si>
+    <t>平安S(G3)</t>
+  </si>
+  <si>
+    <t>埼玉新聞栄冠賞(G)</t>
+  </si>
+  <si>
+    <t>’17ムーンライトカ(OP)</t>
+  </si>
+  <si>
+    <t>千葉ダートマイル(OP)</t>
+  </si>
+  <si>
+    <t>ムーンビーチ賞競走</t>
+  </si>
+  <si>
+    <t>印西市コスモス賞競走</t>
+  </si>
+  <si>
+    <t>岩手県知事杯OROカ(G)</t>
+  </si>
+  <si>
+    <t>いたばし二輪草特別競</t>
+  </si>
+  <si>
+    <t>三里塚特別</t>
+  </si>
+  <si>
+    <t>しぶやダイバーシティ</t>
+  </si>
+  <si>
+    <t>アーバンステージ長月</t>
+  </si>
+  <si>
+    <t>水彩都市・江東特別競</t>
+  </si>
+  <si>
+    <t>じぶん銀行×SPAT</t>
+  </si>
+  <si>
+    <t>フェイスフルブーツ特</t>
+  </si>
+  <si>
+    <t>陽月特別</t>
+  </si>
+  <si>
+    <t>ロマンティックナイト</t>
+  </si>
+  <si>
+    <t>’17スターバースト(OP)</t>
+  </si>
+  <si>
+    <t>ビヤパーティーAib</t>
+  </si>
+  <si>
+    <t>冬木立賞競走</t>
+  </si>
+  <si>
+    <t>ジョイホース横浜賞</t>
+  </si>
+  <si>
+    <t>ジャパンダートダービ(G1)</t>
+  </si>
+  <si>
+    <t>曼珠沙華特別</t>
+  </si>
+  <si>
+    <t>夕凪賞</t>
+  </si>
+  <si>
+    <t>江戸にぎわい光夜賞競</t>
+  </si>
+  <si>
+    <t>野馬追賞</t>
+  </si>
+  <si>
+    <t>江戸極彩棚田賞競走</t>
+  </si>
+  <si>
+    <t>花園S(1600万下)</t>
+  </si>
+  <si>
+    <t>楠賞(G)</t>
+  </si>
+  <si>
+    <t>師走S(OP)</t>
+  </si>
+  <si>
+    <t>門別軽種馬生産振興会</t>
+  </si>
+  <si>
+    <t>カノープス賞競走</t>
+  </si>
+  <si>
+    <t>朝日セントライト記念(G2)</t>
+  </si>
+  <si>
+    <t>B2六　B3四</t>
+  </si>
+  <si>
+    <t>虹色に輝く光の大噴水</t>
+  </si>
+  <si>
+    <t>THEGENFUKE</t>
+  </si>
+  <si>
+    <t>黒潮盃競走(G)</t>
+  </si>
+  <si>
+    <t>芙蓉賞(OP)</t>
+  </si>
+  <si>
+    <t>100mの江戸桜トン</t>
+  </si>
+  <si>
+    <t>B2六</t>
+  </si>
+  <si>
+    <t>日高軽種馬青年部連合</t>
+  </si>
+  <si>
+    <t>福島民友C(L)</t>
+  </si>
+  <si>
+    <t>冬霞賞</t>
   </si>
 </sst>
 </file>
@@ -1203,28 +1737,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5.555555555555555</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>77.77777777777779</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5.555555555555555</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1232,25 +1766,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>38.88888888888889</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>66.66666666666666</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>38.88888888888889</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1258,28 +1792,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>47.05882352941176</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>29.7029702970297</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>59.09090909090909</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
       <c r="I4">
-        <v>47.05882352941176</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1287,28 +1821,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>23.52941176470588</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
       <c r="G5">
-        <v>35.29411764705883</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>23.52941176470588</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1319,25 +1853,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>15.78947368421053</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>29.62962962962963</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>23.52941176470588</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>12.5</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1345,28 +1879,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>34.61538461538461</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>27.65957446808511</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
       <c r="I7">
-        <v>33.33333333333333</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1374,28 +1908,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>33.33333333333333</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>5.555555555555555</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>33.33333333333333</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1403,28 +1937,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>32.25806451612903</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>11.11111111111111</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>44.44444444444444</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1435,22 +1969,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>28.57142857142857</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1473,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>45.45454545454545</v>
+        <v>26.31578947368421</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1487,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1510,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1535,8 +2069,14 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>54.54545454545454</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1552,8 +2092,14 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1569,11 +2115,17 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1586,11 +2138,17 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1607,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1631,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1656,10 +2214,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>53.84615384615385</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1670,10 +2228,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>81.81818181818183</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1684,10 +2242,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1715,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1726,10 +2284,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1740,10 +2298,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>30.76923076923077</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1754,10 +2312,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1768,10 +2326,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1785,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>27.27272727272727</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1796,10 +2354,10 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1810,10 +2368,10 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1838,10 +2396,10 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1852,10 +2410,10 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1866,10 +2424,10 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>57.14285714285714</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1880,10 +2438,10 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1894,10 +2452,10 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1908,10 +2466,10 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1922,10 +2480,10 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1936,10 +2494,10 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1950,10 +2508,10 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1978,10 +2536,1032 @@
         <v>34</v>
       </c>
       <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>42.85714285714285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>22.22222222222222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D40">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>22.22222222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>22.22222222222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +3571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2010,178 +3590,178 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>3.703703703703703</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2.777777777777778</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.777777777777778</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1.851851851851852</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4.62962962962963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2192,66 +3772,66 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2262,136 +3842,136 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.9259259259259258</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0.9259259259259258</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2402,10 +3982,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2416,10 +3996,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2430,10 +4010,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2444,24 +4024,24 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2472,38 +4052,38 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2514,94 +4094,94 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>0.9259259259259258</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2612,38 +4192,38 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2654,10 +4234,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2668,10 +4248,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2682,10 +4262,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2696,108 +4276,108 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2808,10 +4388,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2822,10 +4402,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2836,10 +4416,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2850,10 +4430,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2864,10 +4444,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2878,10 +4458,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2892,38 +4472,38 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2934,38 +4514,38 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2976,10 +4556,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2990,94 +4570,94 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3088,10 +4668,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3102,10 +4682,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3116,10 +4696,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3130,10 +4710,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3144,52 +4724,52 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3200,52 +4780,52 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>0.9259259259259258</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3256,10 +4836,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3270,10 +4850,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3284,38 +4864,38 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>6.818181818181817</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3326,10 +4906,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3340,52 +4920,52 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>1.851851851851852</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>0.9259259259259258</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3396,10 +4976,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3410,24 +4990,24 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3438,10 +5018,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3452,94 +5032,94 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>1.851851851851852</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3550,10 +5130,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3564,10 +5144,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3578,10 +5158,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3592,10 +5172,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3606,10 +5186,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3620,10 +5200,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3634,66 +5214,66 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="B118" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="B122" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3704,10 +5284,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3718,10 +5298,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3732,24 +5312,24 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3760,38 +5340,38 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="B128" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3802,80 +5382,80 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3886,38 +5466,38 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3928,52 +5508,52 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3984,10 +5564,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3998,10 +5578,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4012,10 +5592,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4026,10 +5606,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="B146" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4040,10 +5620,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="B147" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4054,24 +5634,24 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="B148" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4082,10 +5662,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4096,52 +5676,52 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4152,10 +5732,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4166,10 +5746,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4180,24 +5760,24 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4208,10 +5788,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="B159" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4222,10 +5802,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4236,52 +5816,52 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4292,10 +5872,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4306,10 +5886,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4320,80 +5900,80 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.9259259259259258</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>0.9259259259259258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4404,10 +5984,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4418,15 +5998,659 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B175" t="s">
+        <v>281</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B176" t="s">
+        <v>282</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B177" t="s">
+        <v>283</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B178" t="s">
+        <v>284</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B179" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B180" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B182" t="s">
+        <v>288</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B184" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B185" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B187" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B188" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B189" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B190" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B191" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" t="s">
+        <v>299</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" t="s">
+        <v>300</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B195" t="s">
+        <v>301</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B196" t="s">
+        <v>302</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B197" t="s">
+        <v>303</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B198" t="s">
+        <v>304</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B199" t="s">
+        <v>305</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B200" t="s">
+        <v>306</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B201" t="s">
+        <v>307</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B202" t="s">
+        <v>308</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B203" t="s">
+        <v>309</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B204" t="s">
+        <v>310</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B205" t="s">
+        <v>311</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B206" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B207" t="s">
+        <v>313</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B208" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B209" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B210" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B211" t="s">
+        <v>317</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B212" t="s">
+        <v>318</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B213" t="s">
+        <v>319</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B214" t="s">
+        <v>320</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B215" t="s">
+        <v>321</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B216" t="s">
+        <v>322</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B217" t="s">
+        <v>323</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B218" t="s">
+        <v>324</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B219" t="s">
+        <v>325</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B220" t="s">
+        <v>326</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +6661,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4456,178 +6680,178 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>3.703703703703703</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>9.25925925925926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>12.96296296296296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1.851851851851852</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4638,38 +6862,38 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4680,10 +6904,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4694,10 +6918,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4708,52 +6932,52 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>3.703703703703703</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.851851851851852</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4764,24 +6988,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4792,10 +7016,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4806,10 +7030,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4820,24 +7044,24 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>5.555555555555555</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4848,38 +7072,38 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4890,10 +7114,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4904,10 +7128,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4918,52 +7142,52 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>7.407407407407407</v>
+        <v>6.060606060606061</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4974,38 +7198,38 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5016,10 +7240,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5030,10 +7254,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5044,52 +7268,52 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5100,38 +7324,38 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1.851851851851852</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>1.851851851851852</v>
+        <v>6.060606060606061</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5142,10 +7366,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5156,10 +7380,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5170,52 +7394,52 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1.851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5226,15 +7450,841 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B58" t="s">
+        <v>383</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>390</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B75" t="s">
+        <v>400</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B76" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" t="s">
+        <v>404</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>3.03030303030303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B84" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B85" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B87" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B92" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B95" t="s">
+        <v>420</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B96" t="s">
+        <v>421</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" t="s">
+        <v>422</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" t="s">
+        <v>423</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B99" t="s">
+        <v>424</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" t="s">
+        <v>425</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B101" t="s">
+        <v>426</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" t="s">
+        <v>427</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B105" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B107" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1.515151515151515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" t="s">
+        <v>434</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B110" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B111" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" t="s">
+        <v>437</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
         <v>0</v>
       </c>
     </row>
